--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T11/XKBH_NgocKimAnh_181122.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T11/XKBH_NgocKimAnh_181122.xlsx
@@ -414,9 +414,6 @@
     <t>Chỉ đổi thiết bị không kèm phụ kiện</t>
   </si>
   <si>
-    <t>Hà Nội, Ngày 18 Tháng 11 Năm 2022</t>
-  </si>
-  <si>
     <t>Tên Khách hàng: ĐL Ngọc Kim Anh</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>Thiết bị cũ lỗi nguồn, còn BH</t>
+  </si>
+  <si>
+    <t>Hà Nội, Ngày 21 Tháng 11 Năm 2022</t>
   </si>
 </sst>
 </file>
@@ -1255,69 +1255,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1345,16 +1282,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1381,33 +1399,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,6 +1444,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1492,6 +1492,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1502,9 +1526,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,26 +1540,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1564,26 +1585,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1592,21 +1607,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1649,7 +1649,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1701,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1750,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1802,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1851,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1949,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +1998,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2047,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2091,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2165,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,57 +2506,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="119" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="119"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="119"/>
+      <c r="M3" s="98"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="119" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="119"/>
+      <c r="M4" s="98"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2583,29 +2583,29 @@
       <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="73" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103" t="s">
+      <c r="H8" s="100"/>
+      <c r="I8" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103" t="s">
+      <c r="J8" s="100"/>
+      <c r="K8" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="103"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="73" t="s">
         <v>4</v>
       </c>
@@ -2614,86 +2614,86 @@
       <c r="A9" s="74">
         <v>1</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="72" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="72">
         <v>985</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="99" t="s">
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="99"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="74">
         <v>2</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="111"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="72" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="72">
         <v>985</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="99" t="s">
+      <c r="G10" s="106"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="99"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74">
         <v>3</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="72" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="72">
         <v>985</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99" t="s">
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="99"/>
+      <c r="L11" s="105"/>
       <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74">
         <v>4</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="72" t="s">
         <v>92</v>
       </c>
@@ -2701,58 +2701,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99" t="s">
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="99"/>
+      <c r="L12" s="105"/>
       <c r="M12" s="71"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="100" t="s">
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="100" t="s">
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="102"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="114"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="91" t="s">
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="91" t="s">
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="93"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="117"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -2815,25 +2815,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="94" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="94" t="s">
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="96"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2846,12 +2846,19 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -2868,19 +2875,12 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -2914,51 +2914,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="119" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="119"/>
+      <c r="K2" s="98"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="119"/>
+      <c r="K3" s="98"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="119" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="119"/>
+      <c r="K4" s="98"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2985,23 +2985,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="107" t="s">
+      <c r="G8" s="107"/>
+      <c r="H8" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="J8" s="108"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="107"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3010,46 +3010,46 @@
       <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="121">
         <v>6</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="122" t="s">
+      <c r="G9" s="123"/>
+      <c r="H9" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
       <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="124"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="121">
         <v>4</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="122" t="s">
+      <c r="G10" s="123"/>
+      <c r="H10" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
       <c r="K10" s="77" t="s">
         <v>114</v>
       </c>
@@ -3058,65 +3058,65 @@
       <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="121">
         <v>2</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="122" t="s">
+      <c r="G11" s="123"/>
+      <c r="H11" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
       <c r="K11" s="77" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="100" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="100" t="s">
+      <c r="G13" s="114"/>
+      <c r="H13" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="91" t="s">
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="91" t="s">
+      <c r="G14" s="117"/>
+      <c r="H14" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="117"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3171,23 +3171,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="94" t="s">
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="94" t="s">
+      <c r="G19" s="120"/>
+      <c r="H19" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="120"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3200,6 +3200,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B9:D9"/>
@@ -3209,24 +3227,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3244,7 +3244,7 @@
   <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3261,39 +3261,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="125" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="119" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="98"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="119" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="119"/>
+      <c r="G3" s="98"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="119" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="119"/>
+      <c r="G4" s="98"/>
     </row>
     <row r="5" spans="1:7" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3305,17 +3305,17 @@
         <v>124</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="132" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
+        <v>128</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
     </row>
     <row r="7" spans="1:7" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>92</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="78"/>
     </row>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="68" t="s">
         <v>126</v>
@@ -3394,43 +3394,43 @@
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="61"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="137" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137" t="s">
+      <c r="D13" s="129"/>
+      <c r="E13" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="137"/>
+      <c r="F13" s="129"/>
       <c r="G13" s="83" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136" t="s">
+      <c r="D14" s="128"/>
+      <c r="E14" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="136"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="82" t="s">
         <v>6</v>
       </c>
@@ -3466,8 +3466,8 @@
       <c r="C18" s="65"/>
       <c r="D18" s="76"/>
       <c r="E18" s="65"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
@@ -3479,37 +3479,37 @@
       <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="138" t="s">
+      <c r="B20" s="128"/>
+      <c r="C20" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="138"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="88" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="133" t="s">
+      <c r="E23" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3532,7 +3532,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="J30" s="85" t="s">
         <v>91</v>
       </c>
@@ -3542,6 +3542,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="A13:B13"/>
@@ -3554,13 +3561,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3590,99 +3590,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145"/>
-      <c r="B1" s="146"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="142" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="119" t="s">
+      <c r="E1" s="131"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="119"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="148"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="119" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="119"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="150"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="119" t="s">
+      <c r="A3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="119"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98" t="s">
+      <c r="G5" s="104"/>
+      <c r="H5" s="104" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="98"/>
+      <c r="H6" s="104"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="141"/>
+      <c r="C7" s="156"/>
       <c r="D7" s="80" t="s">
         <v>119</v>
       </c>
@@ -3708,36 +3708,36 @@
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139" t="s">
+      <c r="B9" s="154"/>
+      <c r="C9" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139" t="s">
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="139"/>
+      <c r="H9" s="154"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156" t="s">
+      <c r="B10" s="153"/>
+      <c r="C10" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156" t="s">
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="156"/>
+      <c r="H10" s="153"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -3750,27 +3750,34 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154" t="s">
+      <c r="B15" s="151"/>
+      <c r="C15" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154" t="s">
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="154"/>
+      <c r="H15" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -3787,13 +3794,6 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -3823,8 +3823,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
       <c r="C2" s="160" t="s">
         <v>15</v>
       </c>
@@ -3835,8 +3835,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="163"/>
       <c r="D3" s="164"/>
       <c r="E3" s="165"/>
@@ -3845,8 +3845,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="166"/>
       <c r="D4" s="167"/>
       <c r="E4" s="168"/>
@@ -4167,78 +4167,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="182" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183" t="s">
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="184"/>
-      <c r="L2" s="185"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="177"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="183" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="184"/>
-      <c r="L3" s="185"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="177"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="183" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="177"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181" t="s">
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -4330,58 +4330,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="179" t="s">
+      <c r="C21" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="179" t="s">
+      <c r="D21" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="174" t="s">
+      <c r="E21" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="174" t="s">
+      <c r="F21" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174" t="s">
+      <c r="G21" s="170"/>
+      <c r="H21" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="174" t="s">
+      <c r="I21" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="172" t="s">
+      <c r="K21" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="170" t="s">
+      <c r="L21" s="178" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="178"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="174"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="170"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="171"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="179"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -4426,12 +4426,12 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="177" t="s">
+      <c r="D26" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="157" t="s">
@@ -4499,74 +4499,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="176" t="s">
+      <c r="A33" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="183"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="182"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="175" t="s">
+      <c r="A35" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="175"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="175"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="175"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4574,22 +4574,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4606,6 +4590,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4638,62 +4638,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="191" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="183" t="s">
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="185"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="183" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="185"/>
+      <c r="K3" s="177"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="183" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="185"/>
+      <c r="K4" s="177"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4707,12 +4707,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="193" t="s">
+      <c r="H6" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -4742,10 +4742,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="187" t="s">
+      <c r="J7" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="188"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -4759,8 +4759,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="188"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -4774,8 +4774,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -4789,8 +4789,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="190"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -4804,8 +4804,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="190"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -4819,8 +4819,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="190"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -4834,14 +4834,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="190"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="189" t="s">
+      <c r="A14" s="196" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="190"/>
+      <c r="B14" s="197"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -4849,35 +4849,44 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="200"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="192"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="186" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="194" t="s">
+      <c r="E16" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="186"/>
+      <c r="G16" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194" t="s">
+      <c r="H16" s="186"/>
+      <c r="I16" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4889,15 +4898,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4937,48 +4937,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="183" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="185"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="183" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="185"/>
+      <c r="J3" s="177"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="183" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="185"/>
+      <c r="J4" s="177"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5024,11 +5024,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -5038,174 +5038,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="204" t="s">
+      <c r="H8" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="201"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="206"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="201"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="206"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="201"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="206"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="201"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="206"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="201"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="206"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="201"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="206"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="201"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="206"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="201"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="206"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="201"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="206"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="201"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="206"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="208"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5220,42 +5220,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101" t="s">
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101" t="s">
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5265,9 +5265,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5277,9 +5277,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5289,9 +5289,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5299,6 +5299,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -5306,38 +5338,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
